--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220159</x:t>
   </x:si>
   <x:si>
@@ -60,6 +69,12 @@
     <x:t>Ibrahim Aly Ibrahim Hassan Elsayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210403</x:t>
   </x:si>
   <x:si>
@@ -177,15 +192,6 @@
     <x:t>Julia Ehab thabet</x:t>
   </x:si>
   <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
@@ -246,6 +252,24 @@
     <x:t>Roaa Hesham Salah Elsayed Hamoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1220238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان محمد سموءل رزق سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Mohamed Samawal Rezk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230034</x:t>
   </x:si>
   <x:si>
@@ -441,15 +465,6 @@
     <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
   </x:si>
   <x:si>
-    <x:t>1190475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو ماهر نوفل عبد الرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Maher Nofal Abd Elrahman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210021</x:t>
   </x:si>
   <x:si>
@@ -558,15 +573,6 @@
     <x:t>Mohamed Magdy Fouad Abdul Elaty</x:t>
   </x:si>
   <x:si>
-    <x:t>1210027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد عبد الحميد محمد سالمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Abdel-Hamid Salman</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230175</x:t>
   </x:si>
   <x:si>
@@ -630,6 +636,15 @@
     <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
   </x:si>
   <x:si>
+    <x:t>1230260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد عبد الرازق مشالي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamad Abdelrazik Mashaly</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220204</x:t>
   </x:si>
   <x:si>
@@ -639,15 +654,6 @@
     <x:t>Mostafa Haytham Fawzy Mostafa Elmansy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mosaab Mohammed Abdella Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230266</x:t>
   </x:si>
   <x:si>
@@ -727,15 +733,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef sayed bedier ahmed amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف فرج حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Farag</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -1315,7 +1312,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4176304745</x:v>
+        <x:v>45927.415403206</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1347,7 +1344,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6650118403</x:v>
+        <x:v>45907.4176304745</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1375,11 +1372,9 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45906.6650357292</x:v>
+        <x:v>45927.4164457986</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1402,16 +1397,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4142394676</x:v>
+        <x:v>45906.6650118403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1434,16 +1429,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.6650357292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1466,16 +1461,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45907.4142394676</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1498,16 +1493,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1530,16 +1525,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3049418634</x:v>
+        <x:v>45906.6646034375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1562,16 +1557,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6609923611</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1594,16 +1589,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4156580671</x:v>
+        <x:v>45912.3049418634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1626,16 +1621,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45912.6609923611</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1658,16 +1653,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6651225347</x:v>
+        <x:v>45907.4156580671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1690,16 +1685,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1722,16 +1717,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3050435185</x:v>
+        <x:v>45906.6651225347</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1754,16 +1749,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1786,16 +1781,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45912.3050435185</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1818,16 +1813,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1850,16 +1845,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1882,16 +1877,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6612146644</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1914,14 +1909,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45912.6612146644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1949,11 +1946,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1976,16 +1971,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2008,16 +2003,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2040,14 +2035,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2079,7 +2076,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2111,7 +2108,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2139,11 +2136,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2166,16 +2161,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2198,16 +2193,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3086418981</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2230,16 +2225,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2262,16 +2257,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2294,16 +2289,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45912.3086418981</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2326,16 +2321,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45906.6798381134</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2358,16 +2353,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2390,16 +2385,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2422,16 +2417,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2454,16 +2449,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2486,16 +2481,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2518,16 +2513,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2550,16 +2545,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2582,16 +2577,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2614,16 +2609,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2646,16 +2641,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2678,16 +2673,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2710,16 +2705,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2742,16 +2737,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2774,16 +2769,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2806,16 +2801,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="s">
+      <x:c r="D51" s="2" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2838,16 +2833,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="C52" s="2" t="s">
+      <x:c r="D52" s="2" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2870,16 +2865,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="C53" s="2" t="s">
+      <x:c r="D53" s="2" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2902,16 +2897,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="C54" s="2" t="s">
+      <x:c r="D54" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="D54" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2934,16 +2929,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="C55" s="2" t="s">
+      <x:c r="D55" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2966,16 +2961,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="C56" s="2" t="s">
+      <x:c r="D56" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2998,16 +2993,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="C57" s="2" t="s">
+      <x:c r="D57" s="2" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3030,16 +3025,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="C58" s="2" t="s">
+      <x:c r="D58" s="2" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3062,16 +3057,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="C59" s="2" t="s">
+      <x:c r="D59" s="2" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="D59" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3094,16 +3089,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="C60" s="2" t="s">
+      <x:c r="D60" s="2" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D60" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3126,16 +3121,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="C61" s="2" t="s">
+      <x:c r="D61" s="2" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.7219340625</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3158,16 +3153,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="C62" s="2" t="s">
+      <x:c r="D62" s="2" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D62" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3190,16 +3185,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="C63" s="2" t="s">
+      <x:c r="D63" s="2" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="D63" s="2" t="s">
-        <x:v>188</x:v>
-      </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3222,16 +3217,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="C64" s="2" t="s">
+      <x:c r="D64" s="2" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D64" s="2" t="s">
-        <x:v>191</x:v>
-      </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3254,16 +3249,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="C65" s="2" t="s">
+      <x:c r="D65" s="2" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="D65" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3286,16 +3281,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="C66" s="2" t="s">
+      <x:c r="D66" s="2" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="D66" s="2" t="s">
-        <x:v>197</x:v>
-      </x:c>
       <x:c r="E66" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3318,16 +3313,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="C67" s="2" t="s">
+      <x:c r="D67" s="2" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D67" s="2" t="s">
-        <x:v>200</x:v>
-      </x:c>
       <x:c r="E67" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3350,16 +3345,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="C68" s="2" t="s">
+      <x:c r="D68" s="2" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D68" s="2" t="s">
-        <x:v>203</x:v>
-      </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3382,16 +3377,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="C69" s="2" t="s">
+      <x:c r="D69" s="2" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="D69" s="2" t="s">
-        <x:v>206</x:v>
-      </x:c>
       <x:c r="E69" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3414,16 +3409,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="C70" s="2" t="s">
+      <x:c r="D70" s="2" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="D70" s="2" t="s">
-        <x:v>209</x:v>
-      </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3446,16 +3441,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="C71" s="2" t="s">
+      <x:c r="D71" s="2" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="D71" s="2" t="s">
-        <x:v>212</x:v>
-      </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3478,16 +3473,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="C72" s="2" t="s">
+      <x:c r="D72" s="2" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="D72" s="2" t="s">
-        <x:v>215</x:v>
-      </x:c>
       <x:c r="E72" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3510,16 +3505,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="C73" s="2" t="s">
+      <x:c r="D73" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D73" s="2" t="s">
-        <x:v>218</x:v>
-      </x:c>
       <x:c r="E73" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3542,16 +3537,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B74" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="C74" s="2" t="s">
+      <x:c r="D74" s="2" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="D74" s="2" t="s">
-        <x:v>221</x:v>
-      </x:c>
       <x:c r="E74" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3574,16 +3569,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B75" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C75" s="2" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="C75" s="2" t="s">
+      <x:c r="D75" s="2" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="D75" s="2" t="s">
-        <x:v>224</x:v>
-      </x:c>
       <x:c r="E75" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3606,16 +3601,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B76" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="C76" s="2" t="s">
+      <x:c r="D76" s="2" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="D76" s="2" t="s">
-        <x:v>227</x:v>
-      </x:c>
       <x:c r="E76" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3638,16 +3633,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B77" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C77" s="2" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="C77" s="2" t="s">
+      <x:c r="D77" s="2" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="D77" s="2" t="s">
-        <x:v>230</x:v>
-      </x:c>
       <x:c r="E77" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3670,16 +3665,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B78" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C78" s="2" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="C78" s="2" t="s">
+      <x:c r="D78" s="2" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="D78" s="2" t="s">
-        <x:v>233</x:v>
-      </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3702,16 +3697,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B79" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="C79" s="2" t="s">
+      <x:c r="D79" s="2" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="D79" s="2" t="s">
-        <x:v>236</x:v>
-      </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3734,16 +3729,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B80" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="C80" s="2" t="s">
+      <x:c r="D80" s="2" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="D80" s="2" t="s">
-        <x:v>239</x:v>
-      </x:c>
       <x:c r="E80" s="3">
-        <x:v>45907.4154672106</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3766,13 +3761,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B81" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="C81" s="2" t="s">
+      <x:c r="D81" s="2" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="D81" s="2" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="E81" s="3">
         <x:v>45906.6718801736</x:v>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -192,6 +192,15 @@
     <x:t>Julia Ehab thabet</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
@@ -321,15 +330,6 @@
     <x:t>Shahd Yehya Aboelsoud Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -483,6 +483,15 @@
     <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230228</x:t>
   </x:si>
   <x:si>
@@ -501,6 +510,15 @@
     <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
+    <x:t>1220269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن احمد فؤاد عبد الوهاب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210285</x:t>
   </x:si>
   <x:si>
@@ -528,15 +546,6 @@
     <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
   </x:si>
   <x:si>
-    <x:t>1220077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد امام محمد رضوان ياسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muhammed emam muhammed radwan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230239</x:t>
   </x:si>
   <x:si>
@@ -580,15 +589,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohamed Attaya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مدحت محمود محمد متولي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230324</x:t>
@@ -1822,7 +1822,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45927.6795866088</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1854,7 +1854,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1886,7 +1886,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1918,7 +1918,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6612146644</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1946,9 +1946,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45912.6612146644</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1971,16 +1973,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2012,7 +2012,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2044,7 +2044,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2076,7 +2076,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2108,7 +2108,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2136,9 +2136,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2161,16 +2163,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2202,7 +2202,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2234,7 +2234,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2266,7 +2266,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2298,7 +2298,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.3086418981</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2874,7 +2874,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2906,7 +2906,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2938,7 +2938,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2970,7 +2970,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45927.8164047454</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3002,7 +3002,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3034,7 +3034,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3066,7 +3066,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3098,7 +3098,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3130,7 +3130,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3162,7 +3162,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3194,7 +3194,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3226,7 +3226,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,15 +346,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Khafagy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210059</x:t>
@@ -857,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1157,7 +1148,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T81"/>
+  <x:dimension ref="A1:T80"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2394,7 +2385,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2426,7 +2417,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2458,7 +2449,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2490,7 +2481,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2522,7 +2513,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2554,7 +2545,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2586,7 +2577,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2618,7 +2609,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2650,7 +2641,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2682,7 +2673,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2714,7 +2705,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2746,7 +2737,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2778,7 +2769,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2810,7 +2801,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2842,7 +2833,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2874,7 +2865,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2906,7 +2897,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2938,7 +2929,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45927.8164047454</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2970,7 +2961,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45927.8164047454</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3002,7 +2993,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3034,7 +3025,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3066,7 +3057,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3098,7 +3089,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3130,7 +3121,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3162,7 +3153,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3194,7 +3185,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3226,7 +3217,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3258,7 +3249,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3290,7 +3281,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3322,7 +3313,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3354,7 +3345,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3386,7 +3377,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3418,7 +3409,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3450,7 +3441,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3482,7 +3473,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3514,7 +3505,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3546,7 +3537,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3578,7 +3569,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3610,7 +3601,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3642,7 +3633,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3674,7 +3665,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3706,7 +3697,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3738,7 +3729,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3755,38 +3746,6 @@
       <x:c r="R80" s="2" t="s"/>
       <x:c r="S80" s="2" t="s"/>
       <x:c r="T80" s="2" t="s"/>
-    </x:row>
-    <x:row r="81" spans="1:20">
-      <x:c r="A81" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B81" s="2" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="C81" s="2" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="D81" s="2" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="E81" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F81" s="2" t="s"/>
-      <x:c r="G81" s="2" t="s"/>
-      <x:c r="H81" s="2" t="s"/>
-      <x:c r="I81" s="2" t="s"/>
-      <x:c r="J81" s="2" t="s"/>
-      <x:c r="K81" s="2" t="s"/>
-      <x:c r="L81" s="2" t="s"/>
-      <x:c r="M81" s="2" t="s"/>
-      <x:c r="N81" s="2" t="s"/>
-      <x:c r="O81" s="2" t="s"/>
-      <x:c r="P81" s="2" t="s"/>
-      <x:c r="Q81" s="2" t="s"/>
-      <x:c r="R81" s="2" t="s"/>
-      <x:c r="S81" s="2" t="s"/>
-      <x:c r="T81" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -93,15 +93,6 @@
     <x:t>Ahmed Emad AbdAllah Elbahrawi</x:t>
   </x:si>
   <x:si>
-    <x:t>1230013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالتواب السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdeltawab Alsayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210126</x:t>
   </x:si>
   <x:si>
@@ -111,15 +102,6 @@
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230294</x:t>
   </x:si>
   <x:si>
@@ -447,6 +429,15 @@
     <x:t>Omar Essam Ali shady</x:t>
   </x:si>
   <x:si>
+    <x:t>1230211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد ابوزيد همام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar abozeid hamam</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210067</x:t>
   </x:si>
   <x:si>
@@ -706,6 +697,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايهاب سمير عفيفى مصطفى الشاهد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
   </x:si>
   <x:si>
     <x:t>1220212</x:t>
@@ -1461,7 +1461,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4142394676</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1493,7 +1493,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1525,7 +1525,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45912.3049418634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1557,7 +1557,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45912.6609923611</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1589,7 +1589,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.3049418634</x:v>
+        <x:v>45907.4156580671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1621,7 +1621,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6609923611</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1653,7 +1653,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4156580671</x:v>
+        <x:v>45906.6651225347</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1685,7 +1685,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1717,7 +1717,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651225347</x:v>
+        <x:v>45912.3050435185</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1749,7 +1749,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45927.6795866088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1781,7 +1781,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3050435185</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1813,7 +1813,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.6795866088</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1845,7 +1845,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1877,7 +1877,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45912.6612146644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1905,11 +1905,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1932,16 +1930,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6612146644</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1964,14 +1962,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2003,7 +2003,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2035,7 +2035,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2067,7 +2067,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2095,11 +2095,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2122,16 +2120,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2154,14 +2152,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2193,7 +2193,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2225,7 +2225,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2257,7 +2257,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45906.6798381134</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2289,7 +2289,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2321,7 +2321,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45906.6803473727</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2353,7 +2353,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2385,7 +2385,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2417,7 +2417,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2449,7 +2449,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2481,7 +2481,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2513,7 +2513,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2545,7 +2545,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2577,7 +2577,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2609,7 +2609,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2641,7 +2641,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2673,7 +2673,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2705,7 +2705,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2737,7 +2737,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2769,7 +2769,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2801,7 +2801,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2833,7 +2833,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2865,7 +2865,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2897,7 +2897,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45927.8164047454</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2929,7 +2929,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45927.8164047454</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2961,7 +2961,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2993,7 +2993,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3025,7 +3025,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3057,7 +3057,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45906.6800858796</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3089,7 +3089,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3121,7 +3121,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3153,7 +3153,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3185,7 +3185,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3217,7 +3217,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3249,7 +3249,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3281,7 +3281,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3313,7 +3313,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3345,7 +3345,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3377,7 +3377,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3409,7 +3409,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3441,7 +3441,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3473,7 +3473,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3505,7 +3505,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3537,7 +3537,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3569,7 +3569,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3601,7 +3601,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3633,7 +3633,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45928.8965168981</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -312,15 +312,6 @@
     <x:t>Shahd Yehya Aboelsoud Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1210149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله أمير عبد المنعم خفاجي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240178</x:t>
   </x:si>
   <x:si>
@@ -330,15 +321,6 @@
     <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن هانى احمد رافت سيد حسن عبد الرؤوف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman hany ahmed raafat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210251</x:t>
   </x:si>
   <x:si>
@@ -447,6 +429,15 @@
     <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
   </x:si>
   <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210021</x:t>
   </x:si>
   <x:si>
@@ -492,15 +483,6 @@
     <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
-    <x:t>1220269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن احمد فؤاد عبد الوهاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210285</x:t>
   </x:si>
   <x:si>
@@ -537,15 +519,6 @@
     <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1210076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد شريف علاء جمال الدين زكى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed sherif alaa gamal eldin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210290</x:t>
   </x:si>
   <x:si>
@@ -591,6 +564,15 @@
     <x:t>Meriam Tamer Saddik Hanna</x:t>
   </x:si>
   <x:si>
+    <x:t>1230255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أيمن عمران عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Ayman Omran Abdallah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230114</x:t>
   </x:si>
   <x:si>
@@ -688,6 +670,15 @@
   </x:si>
   <x:si>
     <x:t>WALEED ASHRAF IBRAHIM ABDELNABI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1240393</x:t>
@@ -848,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E79" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1148,7 +1139,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T80"/>
+  <x:dimension ref="A1:T79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1156,7 +1147,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.160625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -2257,7 +2248,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6798381134</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2289,7 +2280,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2321,7 +2312,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6803473727</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2353,7 +2344,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2385,7 +2376,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2417,7 +2408,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2449,7 +2440,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2481,7 +2472,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2513,7 +2504,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2545,7 +2536,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2577,7 +2568,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2609,7 +2600,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2641,7 +2632,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2673,7 +2664,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45929.5053210648</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2705,7 +2696,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45929.3454971875</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2737,7 +2728,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2769,7 +2760,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2801,7 +2792,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2833,7 +2824,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2865,7 +2856,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2897,7 +2888,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45927.8164047454</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2929,7 +2920,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2961,7 +2952,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2993,7 +2984,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3025,7 +3016,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3057,7 +3048,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6800858796</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3089,7 +3080,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3121,7 +3112,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3153,7 +3144,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45929.257496794</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3185,7 +3176,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3217,7 +3208,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3249,7 +3240,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3281,7 +3272,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3313,7 +3304,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3345,7 +3336,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3377,7 +3368,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3409,7 +3400,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3441,7 +3432,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3473,7 +3464,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3505,7 +3496,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3537,7 +3528,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3569,7 +3560,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3601,7 +3592,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45928.8965168981</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3633,7 +3624,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45928.8965168981</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3665,7 +3656,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3697,7 +3688,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3714,38 +3705,6 @@
       <x:c r="R79" s="2" t="s"/>
       <x:c r="S79" s="2" t="s"/>
       <x:c r="T79" s="2" t="s"/>
-    </x:row>
-    <x:row r="80" spans="1:20">
-      <x:c r="A80" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B80" s="2" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="C80" s="2" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="D80" s="2" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E80" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F80" s="2" t="s"/>
-      <x:c r="G80" s="2" t="s"/>
-      <x:c r="H80" s="2" t="s"/>
-      <x:c r="I80" s="2" t="s"/>
-      <x:c r="J80" s="2" t="s"/>
-      <x:c r="K80" s="2" t="s"/>
-      <x:c r="L80" s="2" t="s"/>
-      <x:c r="M80" s="2" t="s"/>
-      <x:c r="N80" s="2" t="s"/>
-      <x:c r="O80" s="2" t="s"/>
-      <x:c r="P80" s="2" t="s"/>
-      <x:c r="Q80" s="2" t="s"/>
-      <x:c r="R80" s="2" t="s"/>
-      <x:c r="S80" s="2" t="s"/>
-      <x:c r="T80" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Julia Ehab thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم ايهاب فاروق فاوي مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem ehab farouk fawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210214</x:t>
@@ -839,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E79" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1139,7 +1148,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T79"/>
+  <x:dimension ref="A1:T80"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1740,7 +1749,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.6795866088</x:v>
+        <x:v>45931.6444196412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1772,7 +1781,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45927.6795866088</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1804,7 +1813,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1836,7 +1845,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1868,7 +1877,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6612146644</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1896,9 +1905,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45912.6612146644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1921,16 +1932,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2086,9 +2095,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2111,16 +2122,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2152,7 +2161,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2184,7 +2193,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2216,7 +2225,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2248,7 +2257,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2280,7 +2289,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2312,7 +2321,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2344,7 +2353,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2376,7 +2385,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2408,7 +2417,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2440,7 +2449,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2472,7 +2481,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2504,7 +2513,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2536,7 +2545,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2568,7 +2577,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2600,7 +2609,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2632,7 +2641,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2664,7 +2673,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45929.5053210648</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2696,7 +2705,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45929.3454971875</x:v>
+        <x:v>45929.5053210648</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2728,7 +2737,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45929.3454971875</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2760,7 +2769,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2792,7 +2801,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2824,7 +2833,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2856,7 +2865,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2888,7 +2897,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2920,7 +2929,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2952,7 +2961,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2984,7 +2993,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3016,7 +3025,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3048,7 +3057,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3080,7 +3089,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3112,7 +3121,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3144,7 +3153,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45929.257496794</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3176,7 +3185,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45929.257496794</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3208,7 +3217,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3240,7 +3249,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3272,7 +3281,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3304,7 +3313,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3336,7 +3345,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3368,7 +3377,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3400,7 +3409,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3432,7 +3441,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3464,7 +3473,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3496,7 +3505,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3528,7 +3537,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45929.3119977199</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3560,7 +3569,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3592,7 +3601,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45928.8965168981</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3624,7 +3633,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45928.8965168981</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3656,7 +3665,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3688,7 +3697,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6718801736</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3705,6 +3714,38 @@
       <x:c r="R79" s="2" t="s"/>
       <x:c r="S79" s="2" t="s"/>
       <x:c r="T79" s="2" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:20">
+      <x:c r="A80" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D80" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E80" s="3">
+        <x:v>45906.6718801736</x:v>
+      </x:c>
+      <x:c r="F80" s="2" t="s"/>
+      <x:c r="G80" s="2" t="s"/>
+      <x:c r="H80" s="2" t="s"/>
+      <x:c r="I80" s="2" t="s"/>
+      <x:c r="J80" s="2" t="s"/>
+      <x:c r="K80" s="2" t="s"/>
+      <x:c r="L80" s="2" t="s"/>
+      <x:c r="M80" s="2" t="s"/>
+      <x:c r="N80" s="2" t="s"/>
+      <x:c r="O80" s="2" t="s"/>
+      <x:c r="P80" s="2" t="s"/>
+      <x:c r="Q80" s="2" t="s"/>
+      <x:c r="R80" s="2" t="s"/>
+      <x:c r="S80" s="2" t="s"/>
+      <x:c r="T80" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,15 @@
   </x:si>
   <x:si>
     <x:t>Bassel Alaa Mohamed Fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسمه يحيي العدوي علي شوشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basma yahia eladwey</x:t>
   </x:si>
   <x:si>
     <x:t>1220041</x:t>
@@ -848,7 +857,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1148,7 +1157,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T80"/>
+  <x:dimension ref="A1:T81"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1589,7 +1598,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4156580671</x:v>
+        <x:v>45932.5264027431</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45907.4156580671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6651225347</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1685,7 +1694,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45906.6651225347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1717,7 +1726,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3050435185</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1749,7 +1758,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45931.6444196412</x:v>
+        <x:v>45912.3050435185</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1781,7 +1790,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.6795866088</x:v>
+        <x:v>45931.6444196412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1813,7 +1822,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45927.6795866088</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1845,7 +1854,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4152515856</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1877,7 +1886,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4152515856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1909,7 +1918,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6612146644</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1937,9 +1946,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45912.6612146644</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1962,16 +1973,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2127,9 +2136,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2152,16 +2163,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2193,7 +2202,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2225,7 +2234,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2257,7 +2266,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2289,7 +2298,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2321,7 +2330,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2353,7 +2362,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2385,7 +2394,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2417,7 +2426,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2449,7 +2458,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2481,7 +2490,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2513,7 +2522,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2545,7 +2554,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2577,7 +2586,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2609,7 +2618,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2641,7 +2650,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2673,7 +2682,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2705,7 +2714,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45929.5053210648</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2737,7 +2746,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45929.3454971875</x:v>
+        <x:v>45929.5053210648</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2769,7 +2778,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45929.3454971875</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2801,7 +2810,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2833,7 +2842,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2865,7 +2874,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2897,7 +2906,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2929,7 +2938,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2961,7 +2970,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2993,7 +3002,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3025,7 +3034,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3057,7 +3066,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45906.6676064468</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3089,7 +3098,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3121,7 +3130,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3153,7 +3162,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3185,7 +3194,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45929.257496794</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3217,7 +3226,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45929.257496794</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3249,7 +3258,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3281,7 +3290,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3313,7 +3322,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3345,7 +3354,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3377,7 +3386,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3409,7 +3418,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3441,7 +3450,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3473,7 +3482,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3505,7 +3514,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3537,7 +3546,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3569,7 +3578,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45929.3119977199</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3601,7 +3610,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3633,7 +3642,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45928.8965168981</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3665,7 +3674,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45928.8965168981</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3697,7 +3706,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3729,7 +3738,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6718801736</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3746,6 +3755,38 @@
       <x:c r="R80" s="2" t="s"/>
       <x:c r="S80" s="2" t="s"/>
       <x:c r="T80" s="2" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:20">
+      <x:c r="A81" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D81" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E81" s="3">
+        <x:v>45906.6718801736</x:v>
+      </x:c>
+      <x:c r="F81" s="2" t="s"/>
+      <x:c r="G81" s="2" t="s"/>
+      <x:c r="H81" s="2" t="s"/>
+      <x:c r="I81" s="2" t="s"/>
+      <x:c r="J81" s="2" t="s"/>
+      <x:c r="K81" s="2" t="s"/>
+      <x:c r="L81" s="2" t="s"/>
+      <x:c r="M81" s="2" t="s"/>
+      <x:c r="N81" s="2" t="s"/>
+      <x:c r="O81" s="2" t="s"/>
+      <x:c r="P81" s="2" t="s"/>
+      <x:c r="Q81" s="2" t="s"/>
+      <x:c r="R81" s="2" t="s"/>
+      <x:c r="S81" s="2" t="s"/>
+      <x:c r="T81" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -241,15 +241,6 @@
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد ايمن عبد العظيم احمد محمد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230184</x:t>
@@ -857,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1157,7 +1148,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T81"/>
+  <x:dimension ref="A1:T80"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2012,7 +2003,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45927.4144425579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4144425579</x:v>
+        <x:v>45912.6609073264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2136,11 +2127,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45912.6609073264</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2163,14 +2152,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2202,7 +2193,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45907.4169541319</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2234,7 +2225,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4169541319</x:v>
+        <x:v>45913.8084226042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2266,7 +2257,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.8084226042</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2298,7 +2289,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2330,7 +2321,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45927.4167121528</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2362,7 +2353,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4167121528</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2394,7 +2385,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45912.3087316319</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2426,7 +2417,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.3087316319</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2458,7 +2449,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2490,7 +2481,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2522,7 +2513,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2554,7 +2545,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2586,7 +2577,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2618,7 +2609,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45927.4327822917</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2650,7 +2641,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4327822917</x:v>
+        <x:v>45907.425690081</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2682,7 +2673,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.425690081</x:v>
+        <x:v>45927.4166126968</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2714,7 +2705,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4166126968</x:v>
+        <x:v>45929.5053210648</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2746,7 +2737,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45929.5053210648</x:v>
+        <x:v>45929.3454971875</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2778,7 +2769,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45929.3454971875</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2810,7 +2801,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2842,7 +2833,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45912.3044168982</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2874,7 +2865,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3044168982</x:v>
+        <x:v>45907.4183685185</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2906,7 +2897,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4183685185</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2938,7 +2929,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2970,7 +2961,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -3002,7 +2993,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45912.3048243056</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -3034,7 +3025,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.3048243056</x:v>
+        <x:v>45933.3466221065</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -3066,7 +3057,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6676064468</x:v>
+        <x:v>45907.4143820949</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3098,7 +3089,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4143820949</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3130,7 +3121,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3162,7 +3153,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3194,7 +3185,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45929.257496794</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3226,7 +3217,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45929.257496794</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3258,7 +3249,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3290,7 +3281,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3322,7 +3313,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45927.6416966782</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3354,7 +3345,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45927.6416966782</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3386,7 +3377,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3418,7 +3409,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3450,7 +3441,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.3089276968</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3482,7 +3473,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45912.3089276968</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3514,7 +3505,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E73" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s"/>
       <x:c r="G73" s="2" t="s"/>
@@ -3546,7 +3537,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E74" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.6662128819</x:v>
       </x:c>
       <x:c r="F74" s="2" t="s"/>
       <x:c r="G74" s="2" t="s"/>
@@ -3578,7 +3569,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="E75" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s"/>
       <x:c r="G75" s="2" t="s"/>
@@ -3610,7 +3601,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E76" s="3">
-        <x:v>45929.3119977199</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -3642,7 +3633,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E77" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45928.8965168981</x:v>
       </x:c>
       <x:c r="F77" s="2" t="s"/>
       <x:c r="G77" s="2" t="s"/>
@@ -3674,7 +3665,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E78" s="3">
-        <x:v>45928.8965168981</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F78" s="2" t="s"/>
       <x:c r="G78" s="2" t="s"/>
@@ -3706,7 +3697,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E79" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6669528935</x:v>
       </x:c>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -3738,7 +3729,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E80" s="3">
-        <x:v>45906.6669528935</x:v>
+        <x:v>45906.6718801736</x:v>
       </x:c>
       <x:c r="F80" s="2" t="s"/>
       <x:c r="G80" s="2" t="s"/>
@@ -3755,38 +3746,6 @@
       <x:c r="R80" s="2" t="s"/>
       <x:c r="S80" s="2" t="s"/>
       <x:c r="T80" s="2" t="s"/>
-    </x:row>
-    <x:row r="81" spans="1:20">
-      <x:c r="A81" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B81" s="2" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="C81" s="2" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="D81" s="2" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="E81" s="3">
-        <x:v>45906.6718801736</x:v>
-      </x:c>
-      <x:c r="F81" s="2" t="s"/>
-      <x:c r="G81" s="2" t="s"/>
-      <x:c r="H81" s="2" t="s"/>
-      <x:c r="I81" s="2" t="s"/>
-      <x:c r="J81" s="2" t="s"/>
-      <x:c r="K81" s="2" t="s"/>
-      <x:c r="L81" s="2" t="s"/>
-      <x:c r="M81" s="2" t="s"/>
-      <x:c r="N81" s="2" t="s"/>
-      <x:c r="O81" s="2" t="s"/>
-      <x:c r="P81" s="2" t="s"/>
-      <x:c r="Q81" s="2" t="s"/>
-      <x:c r="R81" s="2" t="s"/>
-      <x:c r="S81" s="2" t="s"/>
-      <x:c r="T81" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -597,7 +597,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1210307</x:t>

--- a/downloaded_files/CMPS202_Lecture-35675.xlsx
+++ b/downloaded_files/CMPS202_Lecture-35675.xlsx
@@ -204,10 +204,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1220120</x:t>
